--- a/public/dados_ean13.xlsx
+++ b/public/dados_ean13.xlsx
@@ -11,15 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Código</t>
   </si>
   <si>
     <t>Imagem</t>
-  </si>
-  <si>
-    <t>1234567890128</t>
   </si>
 </sst>
 </file>
@@ -73,206 +70,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905000" cy="666750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905000" cy="666750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905000" cy="666750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905000" cy="666750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1905000" cy="666750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,7 +394,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="20" style="1" customWidth="1"/>
@@ -612,34 +409,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" ht="70" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>